--- a/simple/course_65.xlsx
+++ b/simple/course_65.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7038B1B2-D6D1-4118-B481-1A2EDE6859AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="148">
   <si>
     <t>รหัสวิชา</t>
   </si>
@@ -23,15 +27,6 @@
   </si>
   <si>
     <t>หมวด</t>
-  </si>
-  <si>
-    <t>03456764</t>
-  </si>
-  <si>
-    <t>testsubject</t>
-  </si>
-  <si>
-    <t>1(3-1-null)</t>
   </si>
   <si>
     <t>วิชาแกน</t>
@@ -469,14 +464,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -839,9 +834,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -859,16 +859,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,94 +879,94 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -977,66 +977,66 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1047,150 +1047,150 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>58</v>
       </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1204,511 +1204,511 @@
         <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
         <v>66</v>
       </c>
-      <c r="B28" t="s">
-        <v>67</v>
-      </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
         <v>68</v>
       </c>
-      <c r="B29" t="s">
-        <v>69</v>
-      </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
         <v>70</v>
       </c>
-      <c r="B30" t="s">
-        <v>71</v>
-      </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
         <v>72</v>
       </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
         <v>74</v>
       </c>
-      <c r="B32" t="s">
-        <v>75</v>
-      </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
         <v>76</v>
       </c>
-      <c r="B33" t="s">
-        <v>77</v>
-      </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
         <v>78</v>
       </c>
-      <c r="B34" t="s">
-        <v>79</v>
-      </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
         <v>80</v>
       </c>
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
         <v>82</v>
       </c>
-      <c r="B36" t="s">
-        <v>83</v>
-      </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
         <v>84</v>
       </c>
-      <c r="B37" t="s">
-        <v>85</v>
-      </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
         <v>86</v>
       </c>
-      <c r="B38" t="s">
-        <v>87</v>
-      </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
         <v>88</v>
       </c>
-      <c r="B39" t="s">
-        <v>89</v>
-      </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
         <v>90</v>
       </c>
-      <c r="B40" t="s">
-        <v>91</v>
-      </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
         <v>92</v>
       </c>
-      <c r="B41" t="s">
-        <v>93</v>
-      </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
         <v>94</v>
       </c>
-      <c r="B42" t="s">
-        <v>95</v>
-      </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
         <v>96</v>
       </c>
-      <c r="B43" t="s">
-        <v>97</v>
-      </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
         <v>98</v>
       </c>
-      <c r="B44" t="s">
-        <v>99</v>
-      </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
         <v>100</v>
       </c>
-      <c r="B45" t="s">
-        <v>101</v>
-      </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
         <v>102</v>
       </c>
-      <c r="B46" t="s">
-        <v>103</v>
-      </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
         <v>104</v>
       </c>
-      <c r="B47" t="s">
-        <v>105</v>
-      </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
         <v>106</v>
       </c>
-      <c r="B48" t="s">
-        <v>107</v>
-      </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
         <v>108</v>
       </c>
-      <c r="B49" t="s">
-        <v>109</v>
-      </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
         <v>110</v>
       </c>
-      <c r="B50" t="s">
-        <v>111</v>
-      </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" t="s">
         <v>112</v>
       </c>
-      <c r="B51" t="s">
-        <v>113</v>
-      </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
         <v>116</v>
       </c>
-      <c r="B54" t="s">
-        <v>117</v>
-      </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" t="s">
         <v>118</v>
       </c>
-      <c r="B55" t="s">
-        <v>119</v>
-      </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" t="s">
         <v>120</v>
       </c>
-      <c r="B56" t="s">
-        <v>121</v>
-      </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
         <v>122</v>
       </c>
-      <c r="B57" t="s">
-        <v>123</v>
-      </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
         <v>124</v>
       </c>
-      <c r="B58" t="s">
-        <v>125</v>
-      </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" t="s">
         <v>126</v>
       </c>
-      <c r="B59" t="s">
-        <v>127</v>
-      </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" t="s">
         <v>128</v>
       </c>
-      <c r="B60" t="s">
-        <v>129</v>
-      </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" t="s">
         <v>130</v>
       </c>
-      <c r="B61" t="s">
-        <v>131</v>
-      </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" t="s">
         <v>132</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>133</v>
       </c>
-      <c r="C62" t="s">
-        <v>27</v>
-      </c>
       <c r="D62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,38 +1719,38 @@
         <v>135</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" t="s">
         <v>137</v>
       </c>
-      <c r="B64" t="s">
-        <v>138</v>
-      </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s">
         <v>139</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>140</v>
       </c>
-      <c r="C65" t="s">
-        <v>19</v>
-      </c>
       <c r="D65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1761,56 +1761,42 @@
         <v>142</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D66" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" t="s">
         <v>144</v>
       </c>
-      <c r="B67" t="s">
-        <v>145</v>
-      </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" t="s">
         <v>146</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>147</v>
       </c>
-      <c r="C68" t="s">
-        <v>19</v>
-      </c>
       <c r="D68" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>148</v>
-      </c>
-      <c r="B69" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/simple/course_65.xlsx
+++ b/simple/course_65.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7038B1B2-D6D1-4118-B481-1A2EDE6859AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4226F63-2F77-47DD-B982-18D50D1CB6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="149">
   <si>
     <t>รหัสวิชา</t>
   </si>
@@ -29,9 +29,6 @@
     <t>หมวด</t>
   </si>
   <si>
-    <t>วิชาแกน</t>
-  </si>
-  <si>
     <t>03603111</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>1(0-3-2)</t>
   </si>
   <si>
-    <t>03603212</t>
-  </si>
-  <si>
     <t>Abstract Data Types and Problem Solving</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>4(3-3-8)</t>
   </si>
   <si>
-    <t>00360334</t>
-  </si>
-  <si>
     <t>Combined Information Technology for Software Development Laboratory</t>
   </si>
   <si>
@@ -161,9 +152,6 @@
     <t>Digital Systems Design</t>
   </si>
   <si>
-    <t>03603222</t>
-  </si>
-  <si>
     <t>Logic Circuit Laboratory</t>
   </si>
   <si>
@@ -185,15 +173,9 @@
     <t>Embedded Systems Laboratory</t>
   </si>
   <si>
-    <t>03603497</t>
-  </si>
-  <si>
     <t>Seminar</t>
   </si>
   <si>
-    <t>1(0-0-0)</t>
-  </si>
-  <si>
     <t>03603321</t>
   </si>
   <si>
@@ -248,15 +230,9 @@
     <t>Cryptography and Blockchain Technology</t>
   </si>
   <si>
-    <t>03603411</t>
-  </si>
-  <si>
     <t>Functional Programming</t>
   </si>
   <si>
-    <t>03603435</t>
-  </si>
-  <si>
     <t>Cloud Computing</t>
   </si>
   <si>
@@ -284,15 +260,9 @@
     <t>Computer Game Development</t>
   </si>
   <si>
-    <t>03603441</t>
-  </si>
-  <si>
     <t>Software Testing</t>
   </si>
   <si>
-    <t>03603351</t>
-  </si>
-  <si>
     <t>Introduction to Data Science</t>
   </si>
   <si>
@@ -314,9 +284,6 @@
     <t>Machine Learning</t>
   </si>
   <si>
-    <t>03603463</t>
-  </si>
-  <si>
     <t>Biologically-Inspired Computational Intelligence</t>
   </si>
   <si>
@@ -356,15 +323,9 @@
     <t>Computer Graphics</t>
   </si>
   <si>
-    <t>03603485</t>
-  </si>
-  <si>
     <t>Digital Audio and Computer Music</t>
   </si>
   <si>
-    <t>03603371</t>
-  </si>
-  <si>
     <t>Application Development for Embedded Devices</t>
   </si>
   <si>
@@ -437,9 +398,6 @@
     <t>Selected Topics in Computer Engineering and Informatics</t>
   </si>
   <si>
-    <t>0(0-0-0)</t>
-  </si>
-  <si>
     <t>03603498</t>
   </si>
   <si>
@@ -458,19 +416,72 @@
     <t>Co-operative Education</t>
   </si>
   <si>
-    <t>6(0-0-0)</t>
+    <t xml:space="preserve">วิชาแกน </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3(2-3-6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3(3-0-6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03603212 </t>
+  </si>
+  <si>
+    <t>0360334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03603222 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(0-3-2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03603497 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03603411 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03603435 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03603441 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03603351 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03603463 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03603485 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03603371 </t>
+  </si>
+  <si>
+    <t>1-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -491,14 +502,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8419F093-9D5D-47B5-ACC3-B934489A8CA9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -837,13 +859,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="28.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -857,942 +882,942 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B29" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B48" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B49" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B51" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B55" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B56" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B57" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B58" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B59" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B60" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B61" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B62" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C62" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="D62" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B63" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B64" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B65" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="C65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B66" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C60" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="C66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B67" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="C67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B68" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C62" t="s">
-        <v>133</v>
-      </c>
-      <c r="D62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>134</v>
-      </c>
-      <c r="B63" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>136</v>
-      </c>
-      <c r="B64" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>138</v>
-      </c>
-      <c r="B65" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>141</v>
-      </c>
-      <c r="B66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>143</v>
-      </c>
-      <c r="B67" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>145</v>
-      </c>
-      <c r="B68" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" t="s">
-        <v>147</v>
-      </c>
-      <c r="D68" t="s">
-        <v>62</v>
+      <c r="C68" s="1">
+        <v>6</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
